--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Amh</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amh</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.300856</v>
+        <v>0.183099</v>
       </c>
       <c r="H2">
-        <v>0.902568</v>
+        <v>0.549297</v>
       </c>
       <c r="I2">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="J2">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N2">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q2">
-        <v>2.352115373912</v>
+        <v>1.495102330526</v>
       </c>
       <c r="R2">
-        <v>21.169038365208</v>
+        <v>13.455920974734</v>
       </c>
       <c r="S2">
-        <v>0.05909230792750145</v>
+        <v>0.04027417416121266</v>
       </c>
       <c r="T2">
-        <v>0.05909230792750146</v>
+        <v>0.04027417416121267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.300856</v>
+        <v>0.183099</v>
       </c>
       <c r="H3">
-        <v>0.902568</v>
+        <v>0.549297</v>
       </c>
       <c r="I3">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="J3">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q3">
-        <v>6.622382401656001</v>
+        <v>4.030338751299</v>
       </c>
       <c r="R3">
-        <v>59.601441614904</v>
+        <v>36.273048761691</v>
       </c>
       <c r="S3">
-        <v>0.166374432322793</v>
+        <v>0.1085668595950848</v>
       </c>
       <c r="T3">
-        <v>0.166374432322793</v>
+        <v>0.1085668595950848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.300856</v>
+        <v>0.183099</v>
       </c>
       <c r="H4">
-        <v>0.902568</v>
+        <v>0.549297</v>
       </c>
       <c r="I4">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="J4">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N4">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q4">
-        <v>2.573878236933334</v>
+        <v>2.474679173008</v>
       </c>
       <c r="R4">
-        <v>23.1649041324</v>
+        <v>22.272112557072</v>
       </c>
       <c r="S4">
-        <v>0.06466366702573557</v>
+        <v>0.0666614304398723</v>
       </c>
       <c r="T4">
-        <v>0.06466366702573557</v>
+        <v>0.0666614304398723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.300856</v>
+        <v>0.183099</v>
       </c>
       <c r="H5">
-        <v>0.902568</v>
+        <v>0.549297</v>
       </c>
       <c r="I5">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="J5">
-        <v>0.324858143967002</v>
+        <v>0.2347163284063858</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N5">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O5">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P5">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q5">
-        <v>1.382305857341333</v>
+        <v>0.7132782672120001</v>
       </c>
       <c r="R5">
-        <v>12.440752716072</v>
+        <v>6.419504404908</v>
       </c>
       <c r="S5">
-        <v>0.03472773669097195</v>
+        <v>0.01921386421021602</v>
       </c>
       <c r="T5">
-        <v>0.03472773669097196</v>
+        <v>0.01921386421021602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.341019</v>
+        <v>0.5969873333333333</v>
       </c>
       <c r="H6">
-        <v>1.023057</v>
+        <v>1.790962</v>
       </c>
       <c r="I6">
-        <v>0.3682253283879432</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="J6">
-        <v>0.3682253283879433</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N6">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q6">
-        <v>2.666112800463</v>
+        <v>4.874724347818222</v>
       </c>
       <c r="R6">
-        <v>23.995015204167</v>
+        <v>43.872519130364</v>
       </c>
       <c r="S6">
-        <v>0.06698088041165413</v>
+        <v>0.1313124147849228</v>
       </c>
       <c r="T6">
-        <v>0.06698088041165416</v>
+        <v>0.1313124147849228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,14 +832,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.341019</v>
+        <v>0.5969873333333333</v>
       </c>
       <c r="H7">
-        <v>1.023057</v>
+        <v>1.790962</v>
       </c>
       <c r="I7">
-        <v>0.3682253283879432</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="J7">
-        <v>0.3682253283879433</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>66.035403</v>
       </c>
       <c r="O7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q7">
-        <v>7.506442365219001</v>
+        <v>13.140766380854</v>
       </c>
       <c r="R7">
-        <v>67.55798128697101</v>
+        <v>118.266897427686</v>
       </c>
       <c r="S7">
-        <v>0.1885847134053718</v>
+        <v>0.3539781211150475</v>
       </c>
       <c r="T7">
-        <v>0.1885847134053719</v>
+        <v>0.3539781211150476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.341019</v>
+        <v>0.5969873333333333</v>
       </c>
       <c r="H8">
-        <v>1.023057</v>
+        <v>1.790962</v>
       </c>
       <c r="I8">
-        <v>0.3682253283879432</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="J8">
-        <v>0.3682253283879433</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N8">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q8">
-        <v>2.91748006515</v>
+        <v>8.068597427345779</v>
       </c>
       <c r="R8">
-        <v>26.25732058635</v>
+        <v>72.61737684611199</v>
       </c>
       <c r="S8">
-        <v>0.07329599232007777</v>
+        <v>0.2173470613956649</v>
       </c>
       <c r="T8">
-        <v>0.07329599232007779</v>
+        <v>0.217347061395665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.341019</v>
+        <v>0.5969873333333333</v>
       </c>
       <c r="H9">
-        <v>1.023057</v>
+        <v>1.790962</v>
       </c>
       <c r="I9">
-        <v>0.3682253283879432</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="J9">
-        <v>0.3682253283879433</v>
+        <v>0.7652836715936142</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N9">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O9">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P9">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q9">
-        <v>1.566837826617</v>
+        <v>2.325616691885333</v>
       </c>
       <c r="R9">
-        <v>14.101540439553</v>
+        <v>20.930550226968</v>
       </c>
       <c r="S9">
-        <v>0.03936374225083947</v>
+        <v>0.06264607429797886</v>
       </c>
       <c r="T9">
-        <v>0.0393637422508395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.28424</v>
-      </c>
-      <c r="H10">
-        <v>0.8527199999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.3069165276450548</v>
-      </c>
-      <c r="J10">
-        <v>0.3069165276450549</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.818077</v>
-      </c>
-      <c r="N10">
-        <v>23.454231</v>
-      </c>
-      <c r="O10">
-        <v>0.1819018824829088</v>
-      </c>
-      <c r="P10">
-        <v>0.1819018824829088</v>
-      </c>
-      <c r="Q10">
-        <v>2.22221020648</v>
-      </c>
-      <c r="R10">
-        <v>19.99989185832</v>
-      </c>
-      <c r="S10">
-        <v>0.05582869414375319</v>
-      </c>
-      <c r="T10">
-        <v>0.05582869414375321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.28424</v>
-      </c>
-      <c r="H11">
-        <v>0.8527199999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.3069165276450548</v>
-      </c>
-      <c r="J11">
-        <v>0.3069165276450549</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>22.011801</v>
-      </c>
-      <c r="N11">
-        <v>66.035403</v>
-      </c>
-      <c r="O11">
-        <v>0.5121448712693895</v>
-      </c>
-      <c r="P11">
-        <v>0.5121448712693895</v>
-      </c>
-      <c r="Q11">
-        <v>6.25663431624</v>
-      </c>
-      <c r="R11">
-        <v>56.30970884616</v>
-      </c>
-      <c r="S11">
-        <v>0.1571857255412246</v>
-      </c>
-      <c r="T11">
-        <v>0.1571857255412246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.28424</v>
-      </c>
-      <c r="H12">
-        <v>0.8527199999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.3069165276450548</v>
-      </c>
-      <c r="J12">
-        <v>0.3069165276450549</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8.555183333333334</v>
-      </c>
-      <c r="N12">
-        <v>25.66555</v>
-      </c>
-      <c r="O12">
-        <v>0.1990520115521681</v>
-      </c>
-      <c r="P12">
-        <v>0.1990520115521681</v>
-      </c>
-      <c r="Q12">
-        <v>2.431725310666667</v>
-      </c>
-      <c r="R12">
-        <v>21.885527796</v>
-      </c>
-      <c r="S12">
-        <v>0.06109235220635478</v>
-      </c>
-      <c r="T12">
-        <v>0.0610923522063548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.28424</v>
-      </c>
-      <c r="H13">
-        <v>0.8527199999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.3069165276450548</v>
-      </c>
-      <c r="J13">
-        <v>0.3069165276450549</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.594576333333333</v>
-      </c>
-      <c r="N13">
-        <v>13.783729</v>
-      </c>
-      <c r="O13">
-        <v>0.1069012346955337</v>
-      </c>
-      <c r="P13">
-        <v>0.1069012346955337</v>
-      </c>
-      <c r="Q13">
-        <v>1.305962376986667</v>
-      </c>
-      <c r="R13">
-        <v>11.75366139288</v>
-      </c>
-      <c r="S13">
-        <v>0.03280975575372226</v>
-      </c>
-      <c r="T13">
-        <v>0.03280975575372228</v>
+        <v>0.06264607429797887</v>
       </c>
     </row>
   </sheetData>
